--- a/punchlist.xlsx
+++ b/punchlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="84" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Rpath punchlist</t>
   </si>
   <si>
-    <t>Updated 12/17/14</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -53,18 +50,27 @@
     <t>Sean</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>S3 object</t>
   </si>
   <si>
     <t>Develop class definitions for ecopath object outputed from ecopath()</t>
   </si>
   <si>
+    <t>Done – created Rpath object in ecopath()</t>
+  </si>
+  <si>
     <t>summary(ecopath.obj)</t>
   </si>
   <si>
     <t>Develop output for summary function using ecopath object</t>
   </si>
   <si>
+    <t>First pass done</t>
+  </si>
+  <si>
     <t>plot(ecopath.obj)</t>
   </si>
   <si>
@@ -74,7 +80,7 @@
     <t>Convert to RCPP</t>
   </si>
   <si>
-    <t>The R package RCPP integrates R and C++ directly, may gain efficiency in ecosim() </t>
+    <t>The R package RCPP integrates R and C++ directly, may gain efficiency in ecosim()</t>
   </si>
   <si>
     <t>Rpath package</t>
@@ -143,7 +149,7 @@
     <t>?</t>
   </si>
   <si>
-    <t>C code already exists?</t>
+    <t>C code already exists? - Kerim may hire a programmer to do this next fall</t>
   </si>
 </sst>
 </file>
@@ -159,6 +165,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -180,6 +187,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,8 +280,12 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -304,7 +316,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -329,9 +341,6 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
@@ -340,233 +349,249 @@
     </row>
     <row r="4" s="5" customFormat="true" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="5" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="11" customFormat="true" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" s="11" customFormat="true" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="11" t="n">
+        <v>41995</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" s="11" customFormat="true" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>41995</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="true" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" s="11" customFormat="true" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="11" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="true" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" s="11" customFormat="true" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" s="11" customFormat="true" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="11" t="n">
+        <v>42019</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="12" t="n">
-        <v>42013</v>
-      </c>
-    </row>
-    <row r="12" s="11" customFormat="true" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" s="11" customFormat="true" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="F13" s="13" t="n">
         <v>42063</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="true" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="F14" s="13" t="n">
         <v>42036</v>
       </c>
     </row>
-    <row r="15" s="11" customFormat="true" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>

--- a/punchlist.xlsx
+++ b/punchlist.xlsx
@@ -68,7 +68,7 @@
     <t>Develop output for summary function using ecopath object</t>
   </si>
   <si>
-    <t>First pass done</t>
+    <t>Done – also created print and write.Rpath functions</t>
   </si>
   <si>
     <t>plot(ecopath.obj)</t>
@@ -315,8 +315,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -341,6 +341,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
@@ -445,7 +446,7 @@
         <v>42005</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="true" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>

--- a/punchlist.xlsx
+++ b/punchlist.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="84" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="84"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Rpath punchlist</t>
   </si>
@@ -62,9 +61,6 @@
     <t>Done – created Rpath object in ecopath()</t>
   </si>
   <si>
-    <t>summary(ecopath.obj)</t>
-  </si>
-  <si>
     <t>Develop output for summary function using ecopath object</t>
   </si>
   <si>
@@ -150,17 +146,25 @@
   </si>
   <si>
     <t>C code already exists? - Kerim may hire a programmer to do this next fall</t>
+  </si>
+  <si>
+    <t>summary(Rpath.sim)</t>
+  </si>
+  <si>
+    <t>Develop output for summary function using ecosim objects</t>
+  </si>
+  <si>
+    <t>summary(Rpath)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -168,22 +172,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -199,138 +188,392 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="34.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="19.5703125"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="34.42578125" style="2"/>
+    <col min="4" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="22.85546875" style="3"/>
+    <col min="6" max="6" width="11.5703125" style="1"/>
+    <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -340,15 +583,15 @@
       <c r="E1" s="7"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
+    <row r="2" spans="1:6" s="4" customFormat="1">
+      <c r="A2"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -368,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" s="12" customFormat="1" ht="38.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -384,11 +627,9 @@
       <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="n">
-        <v>41995</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="25.5">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -404,207 +645,222 @@
       <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="n">
-        <v>41995</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="25.5">
+      <c r="A7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1" ht="25.5">
+      <c r="A8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11">
+        <v>42050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="25.5">
+      <c r="A9" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="F7" s="11" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="8" s="12" customFormat="true" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="11">
+        <v>42050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="38.25">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="25.5">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="38.25">
+      <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="n">
-        <v>42019</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F12" s="13">
+        <v>42050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38.25">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="13" t="n">
-        <v>42013</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="38.25">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="F14" s="13">
+        <v>42063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="13">
         <v>42063</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10" t="s">
+    <row r="16" spans="1:6" ht="51">
+      <c r="A16" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="F14" s="13" t="n">
-        <v>42036</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="51">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
       <c r="F17" s="9"/>
     </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
